--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang4/03.XNBH/XNBH_ThanhTamNhaTrang_01042025.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang4/03.XNBH/XNBH_ThanhTamNhaTrang_01042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang4\03.XNBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E97BDA-9383-4CC0-8801-FE28F9A3258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B65925-BB3F-4E1E-A90E-AB4C5CA32EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,18 +137,9 @@
     <t>008080056252351</t>
   </si>
   <si>
-    <t>Thường xuyên mất GPS ( xác nhận từ htkt)</t>
-  </si>
-  <si>
-    <t>Thường xuyên mất tín hiệu ( xác nhận từ htkt)</t>
-  </si>
-  <si>
     <t>Chưa xác định</t>
   </si>
   <si>
-    <t>Đổi bảo hành, thiết bị cũ giữ lại kiểm tra</t>
-  </si>
-  <si>
     <t>phiên bản 0056 ESIM: 01388296631</t>
   </si>
   <si>
@@ -162,6 +153,18 @@
   </si>
   <si>
     <t>Đặng Ngọc Mai</t>
+  </si>
+  <si>
+    <t>Đổi bảo hành, thiết bị 
+cũ giữ lại kiểm tra</t>
+  </si>
+  <si>
+    <t>Thường xuyên mất GPS 
+( xác nhận từ htkt)</t>
+  </si>
+  <si>
+    <t>Thường xuyên mất tín hiệu 
+( xác nhận từ htkt)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,95 +503,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,35 +536,113 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1010,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1033,115 +1030,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1151,13 +1148,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1167,97 +1164,97 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="A13" s="31">
         <v>1</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="64" t="s">
+      <c r="F13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="65" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
-        <v>2</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>35</v>
+      <c r="G14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1276,124 +1273,136 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="G16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="57"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="33"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="10"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H23:I23"/>
@@ -1404,21 +1413,9 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:I11"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
